--- a/output_data/101_audiomotor_1.xlsx
+++ b/output_data/101_audiomotor_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08C4388-FDFE-4941-847B-A3E0C4CE6879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9C2FB9-CE0E-4E9B-9C00-8B3CF92FF4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{64D94213-C4E7-41E3-A60B-E615E2AAD7BD}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{8F7A56B3-1D12-43FC-A5D6-72905F986EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>run_num</t>
   </si>
@@ -65,6 +54,9 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -415,7 +407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC51DEA1-EBE4-4FE9-95D8-E29AFD275A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31793621-7C26-43C7-AE97-94603BD468BE}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -427,7 +419,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -461,16 +454,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.5539198999999999</v>
+        <v>4.3218472999999999</v>
       </c>
       <c r="D2">
-        <v>5.2566930999999997</v>
+        <v>2.9848053999999999</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,16 +477,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>14.914957100000001</v>
+        <v>17.032510500000001</v>
       </c>
       <c r="D3">
-        <v>5.2541515999999984</v>
+        <v>4.4941409999999991</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,16 +500,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>999</v>
+        <v>26.3624528</v>
       </c>
       <c r="D4">
-        <v>999</v>
+        <v>4.0375301999999991</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,16 +523,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>36.1382428</v>
+        <v>37.5995384</v>
       </c>
       <c r="D5">
-        <v>5.0730086000000014</v>
+        <v>4.2739181999999971</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0942795-6CD9-4D02-9AB4-E4CF1924ECED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFA2B2F-C7D4-4123-AC4B-68654F369C9F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -551,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA6EDAE-967E-4B0D-B380-86B56F2C024C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9C0EF5-6243-45ED-A292-925BE6850D23}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
